--- a/biology/Zoologie/Chauliodus_sloani/Chauliodus_sloani.xlsx
+++ b/biology/Zoologie/Chauliodus_sloani/Chauliodus_sloani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-vipère de Sloane, chauliode de Sloane ou chauliode très lumineux (Chauliodus sloani) est une espèce de poissons-vipères de la famille des stomiidés.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un poisson des grands fond, de forme très allongée, aux gros yeux, à mâchoires garnie de longues dents recourbées. Ses dents l'empêchent de fermer sa bouche, tant elles sont grandes et tranchantes[1].
-Il mesure de 20 à 35 cm de longueur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson des grands fond, de forme très allongée, aux gros yeux, à mâchoires garnie de longues dents recourbées. Ses dents l'empêchent de fermer sa bouche, tant elles sont grandes et tranchantes.
+Il mesure de 20 à 35 cm de longueur.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitat, répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit entre 200 et 4 700 m de profondeur.
-Dans le monde des poissons, C. sloani est l'espèce géographiquement la plus répandue sur la planète ; il a été retrouvé dans plus d’un quart des eaux (en zones tropicales et subtropicales) de la planète[3], à des profondeurs atteignant 2 500 m.
+Dans le monde des poissons, C. sloani est l'espèce géographiquement la plus répandue sur la planète ; il a été retrouvé dans plus d’un quart des eaux (en zones tropicales et subtropicales) de la planète, à des profondeurs atteignant 2 500 m.
 </t>
         </is>
       </c>
